--- a/2022AprilRPASprintAccountlookupsheet.xlsx
+++ b/2022AprilRPASprintAccountlookupsheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://parkercorp-my.sharepoint.com/personal/beverly_johnson_parker_com/Documents/Documents/Oracle Engagement Cloud/UiPath/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{F4E01CB1-59BC-456C-BD05-92D253DFF377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FD79D56-D9DB-486C-AF76-495E39040932}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F9068-59FC-41D5-ABA9-BCD9C74D3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-2310" windowWidth="29040" windowHeight="15840" xr2:uid="{CD820FB8-4B95-41AF-B95C-B5AA5B1D4143}"/>
+    <workbookView xWindow="4395" yWindow="5535" windowWidth="21600" windowHeight="11385" xr2:uid="{CD820FB8-4B95-41AF-B95C-B5AA5B1D4143}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022AprilRPASprintAccountlookupsheet.xlsx
+++ b/2022AprilRPASprintAccountlookupsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0F9068-59FC-41D5-ABA9-BCD9C74D3B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D9117A-8BEC-4856-A162-7F342ADF41B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4395" yWindow="5535" windowWidth="21600" windowHeight="11385" xr2:uid="{CD820FB8-4B95-41AF-B95C-B5AA5B1D4143}"/>
+    <workbookView xWindow="3840" yWindow="855" windowWidth="19260" windowHeight="14985" xr2:uid="{CD820FB8-4B95-41AF-B95C-B5AA5B1D4143}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2022AprilRPASprintAccountlookupsheet.xlsx
+++ b/2022AprilRPASprintAccountlookupsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\561625\Documents\GitHub\UiPath-Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D9117A-8BEC-4856-A162-7F342ADF41B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6D0205-FB1F-450B-962D-471A5CB1FD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="855" windowWidth="19260" windowHeight="14985" xr2:uid="{CD820FB8-4B95-41AF-B95C-B5AA5B1D4143}"/>
+    <workbookView xWindow="-15" yWindow="15" windowWidth="25230" windowHeight="15450" xr2:uid="{CD820FB8-4B95-41AF-B95C-B5AA5B1D4143}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
